--- a/experiments/results/initial/offline/Aggregate Offline Initial Statistics.xlsx
+++ b/experiments/results/initial/offline/Aggregate Offline Initial Statistics.xlsx
@@ -21875,7 +21875,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{76F0167A-7B2F-47BE-803F-9F231D450AE4}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{003C28A7-A162-4003-8B50-72FE3A218E0E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -21886,40 +21886,184 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z69:AB69</xm:f>
-              <xm:sqref>AC69</xm:sqref>
+              <xm:f>'Globals PS1'!Z17:AB17</xm:f>
+              <xm:sqref>AC17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z70:AB70</xm:f>
-              <xm:sqref>AC70</xm:sqref>
+              <xm:f>'Globals PS1'!Z18:AB18</xm:f>
+              <xm:sqref>AC18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z71:AB71</xm:f>
-              <xm:sqref>AC71</xm:sqref>
+              <xm:f>'Globals PS1'!Z19:AB19</xm:f>
+              <xm:sqref>AC19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z72:AB72</xm:f>
-              <xm:sqref>AC72</xm:sqref>
+              <xm:f>'Globals PS1'!Z20:AB20</xm:f>
+              <xm:sqref>AC20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z73:AB73</xm:f>
-              <xm:sqref>AC73</xm:sqref>
+              <xm:f>'Globals PS1'!Z21:AB21</xm:f>
+              <xm:sqref>AC21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z74:AB74</xm:f>
-              <xm:sqref>AC74</xm:sqref>
+              <xm:f>'Globals PS1'!Z22:AB22</xm:f>
+              <xm:sqref>AC22</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z75:AB75</xm:f>
-              <xm:sqref>AC75</xm:sqref>
+              <xm:f>'Globals PS1'!Z23:AB23</xm:f>
+              <xm:sqref>AC23</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z76:AB76</xm:f>
-              <xm:sqref>AC76</xm:sqref>
+              <xm:f>'Globals PS1'!Z24:AB24</xm:f>
+              <xm:sqref>AC24</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z77:AB77</xm:f>
-              <xm:sqref>AC77</xm:sqref>
+              <xm:f>'Globals PS1'!Z25:AB25</xm:f>
+              <xm:sqref>AC25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{16AF4D3B-75ED-4A29-B7E0-C2891A29C397}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z4:AB4</xm:f>
+              <xm:sqref>AC4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z5:AB5</xm:f>
+              <xm:sqref>AC5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z6:AB6</xm:f>
+              <xm:sqref>AC6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z7:AB7</xm:f>
+              <xm:sqref>AC7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z8:AB8</xm:f>
+              <xm:sqref>AC8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z9:AB9</xm:f>
+              <xm:sqref>AC9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z10:AB10</xm:f>
+              <xm:sqref>AC10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z11:AB11</xm:f>
+              <xm:sqref>AC11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z12:AB12</xm:f>
+              <xm:sqref>AC12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{D2E7E861-D209-4B42-A9DE-0B6E2B90F199}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z30:AB30</xm:f>
+              <xm:sqref>AC30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z31:AB31</xm:f>
+              <xm:sqref>AC31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z32:AB32</xm:f>
+              <xm:sqref>AC32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z33:AB33</xm:f>
+              <xm:sqref>AC33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z34:AB34</xm:f>
+              <xm:sqref>AC34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z35:AB35</xm:f>
+              <xm:sqref>AC35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z36:AB36</xm:f>
+              <xm:sqref>AC36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z37:AB37</xm:f>
+              <xm:sqref>AC37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z38:AB38</xm:f>
+              <xm:sqref>AC38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{7D9842FD-496B-4F7B-877C-441D1EDDB5D2}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z43:AB43</xm:f>
+              <xm:sqref>AC43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z44:AB44</xm:f>
+              <xm:sqref>AC44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z45:AB45</xm:f>
+              <xm:sqref>AC45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z46:AB46</xm:f>
+              <xm:sqref>AC46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z47:AB47</xm:f>
+              <xm:sqref>AC47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z48:AB48</xm:f>
+              <xm:sqref>AC48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z49:AB49</xm:f>
+              <xm:sqref>AC49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z50:AB50</xm:f>
+              <xm:sqref>AC50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS1'!Z51:AB51</xm:f>
+              <xm:sqref>AC51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -21971,7 +22115,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{7D9842FD-496B-4F7B-877C-441D1EDDB5D2}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{76F0167A-7B2F-47BE-803F-9F231D450AE4}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -21982,184 +22126,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z43:AB43</xm:f>
-              <xm:sqref>AC43</xm:sqref>
+              <xm:f>'Globals PS1'!Z69:AB69</xm:f>
+              <xm:sqref>AC69</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z44:AB44</xm:f>
-              <xm:sqref>AC44</xm:sqref>
+              <xm:f>'Globals PS1'!Z70:AB70</xm:f>
+              <xm:sqref>AC70</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z45:AB45</xm:f>
-              <xm:sqref>AC45</xm:sqref>
+              <xm:f>'Globals PS1'!Z71:AB71</xm:f>
+              <xm:sqref>AC71</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z46:AB46</xm:f>
-              <xm:sqref>AC46</xm:sqref>
+              <xm:f>'Globals PS1'!Z72:AB72</xm:f>
+              <xm:sqref>AC72</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z47:AB47</xm:f>
-              <xm:sqref>AC47</xm:sqref>
+              <xm:f>'Globals PS1'!Z73:AB73</xm:f>
+              <xm:sqref>AC73</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z48:AB48</xm:f>
-              <xm:sqref>AC48</xm:sqref>
+              <xm:f>'Globals PS1'!Z74:AB74</xm:f>
+              <xm:sqref>AC74</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z49:AB49</xm:f>
-              <xm:sqref>AC49</xm:sqref>
+              <xm:f>'Globals PS1'!Z75:AB75</xm:f>
+              <xm:sqref>AC75</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z50:AB50</xm:f>
-              <xm:sqref>AC50</xm:sqref>
+              <xm:f>'Globals PS1'!Z76:AB76</xm:f>
+              <xm:sqref>AC76</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS1'!Z51:AB51</xm:f>
-              <xm:sqref>AC51</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{D2E7E861-D209-4B42-A9DE-0B6E2B90F199}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z30:AB30</xm:f>
-              <xm:sqref>AC30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z31:AB31</xm:f>
-              <xm:sqref>AC31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z32:AB32</xm:f>
-              <xm:sqref>AC32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z33:AB33</xm:f>
-              <xm:sqref>AC33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z34:AB34</xm:f>
-              <xm:sqref>AC34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z35:AB35</xm:f>
-              <xm:sqref>AC35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z36:AB36</xm:f>
-              <xm:sqref>AC36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z37:AB37</xm:f>
-              <xm:sqref>AC37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z38:AB38</xm:f>
-              <xm:sqref>AC38</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{16AF4D3B-75ED-4A29-B7E0-C2891A29C397}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z4:AB4</xm:f>
-              <xm:sqref>AC4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z5:AB5</xm:f>
-              <xm:sqref>AC5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z6:AB6</xm:f>
-              <xm:sqref>AC6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z7:AB7</xm:f>
-              <xm:sqref>AC7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z8:AB8</xm:f>
-              <xm:sqref>AC8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z9:AB9</xm:f>
-              <xm:sqref>AC9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z10:AB10</xm:f>
-              <xm:sqref>AC10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z11:AB11</xm:f>
-              <xm:sqref>AC11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z12:AB12</xm:f>
-              <xm:sqref>AC12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{003C28A7-A162-4003-8B50-72FE3A218E0E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z17:AB17</xm:f>
-              <xm:sqref>AC17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z18:AB18</xm:f>
-              <xm:sqref>AC18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z19:AB19</xm:f>
-              <xm:sqref>AC19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z20:AB20</xm:f>
-              <xm:sqref>AC20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z21:AB21</xm:f>
-              <xm:sqref>AC21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z22:AB22</xm:f>
-              <xm:sqref>AC22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z23:AB23</xm:f>
-              <xm:sqref>AC23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z24:AB24</xm:f>
-              <xm:sqref>AC24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS1'!Z25:AB25</xm:f>
-              <xm:sqref>AC25</xm:sqref>
+              <xm:f>'Globals PS1'!Z77:AB77</xm:f>
+              <xm:sqref>AC77</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -29279,7 +29279,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{8CC3C2C5-B8A0-4869-A4DD-173221BA8511}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{5BCB9D73-8CC8-4B8F-9217-BF1C432EFE2F}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -29290,40 +29290,184 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z69:AB69</xm:f>
-              <xm:sqref>AC69</xm:sqref>
+              <xm:f>'Globals PS2'!Z17:AB17</xm:f>
+              <xm:sqref>AC17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z70:AB70</xm:f>
-              <xm:sqref>AC70</xm:sqref>
+              <xm:f>'Globals PS2'!Z18:AB18</xm:f>
+              <xm:sqref>AC18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z71:AB71</xm:f>
-              <xm:sqref>AC71</xm:sqref>
+              <xm:f>'Globals PS2'!Z19:AB19</xm:f>
+              <xm:sqref>AC19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z72:AB72</xm:f>
-              <xm:sqref>AC72</xm:sqref>
+              <xm:f>'Globals PS2'!Z20:AB20</xm:f>
+              <xm:sqref>AC20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z73:AB73</xm:f>
-              <xm:sqref>AC73</xm:sqref>
+              <xm:f>'Globals PS2'!Z21:AB21</xm:f>
+              <xm:sqref>AC21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z74:AB74</xm:f>
-              <xm:sqref>AC74</xm:sqref>
+              <xm:f>'Globals PS2'!Z22:AB22</xm:f>
+              <xm:sqref>AC22</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z75:AB75</xm:f>
-              <xm:sqref>AC75</xm:sqref>
+              <xm:f>'Globals PS2'!Z23:AB23</xm:f>
+              <xm:sqref>AC23</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z76:AB76</xm:f>
-              <xm:sqref>AC76</xm:sqref>
+              <xm:f>'Globals PS2'!Z24:AB24</xm:f>
+              <xm:sqref>AC24</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z77:AB77</xm:f>
-              <xm:sqref>AC77</xm:sqref>
+              <xm:f>'Globals PS2'!Z25:AB25</xm:f>
+              <xm:sqref>AC25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F5A1DF84-CBD9-4F69-9FE4-A61331AB74C4}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z4:AB4</xm:f>
+              <xm:sqref>AC4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z5:AB5</xm:f>
+              <xm:sqref>AC5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z6:AB6</xm:f>
+              <xm:sqref>AC6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z7:AB7</xm:f>
+              <xm:sqref>AC7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z8:AB8</xm:f>
+              <xm:sqref>AC8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z9:AB9</xm:f>
+              <xm:sqref>AC9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z10:AB10</xm:f>
+              <xm:sqref>AC10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z11:AB11</xm:f>
+              <xm:sqref>AC11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z12:AB12</xm:f>
+              <xm:sqref>AC12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{08CDE015-5480-440B-8C54-C9DF435CB029}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z30:AB30</xm:f>
+              <xm:sqref>AC30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z31:AB31</xm:f>
+              <xm:sqref>AC31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z32:AB32</xm:f>
+              <xm:sqref>AC32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z33:AB33</xm:f>
+              <xm:sqref>AC33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z34:AB34</xm:f>
+              <xm:sqref>AC34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z35:AB35</xm:f>
+              <xm:sqref>AC35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z36:AB36</xm:f>
+              <xm:sqref>AC36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z37:AB37</xm:f>
+              <xm:sqref>AC37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z38:AB38</xm:f>
+              <xm:sqref>AC38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{4391B5E9-B94A-41EA-98A4-482072E9930F}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z43:AB43</xm:f>
+              <xm:sqref>AC43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z44:AB44</xm:f>
+              <xm:sqref>AC44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z45:AB45</xm:f>
+              <xm:sqref>AC45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z46:AB46</xm:f>
+              <xm:sqref>AC46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z47:AB47</xm:f>
+              <xm:sqref>AC47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z48:AB48</xm:f>
+              <xm:sqref>AC48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z49:AB49</xm:f>
+              <xm:sqref>AC49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z50:AB50</xm:f>
+              <xm:sqref>AC50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS2'!Z51:AB51</xm:f>
+              <xm:sqref>AC51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -29375,7 +29519,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{4391B5E9-B94A-41EA-98A4-482072E9930F}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{8CC3C2C5-B8A0-4869-A4DD-173221BA8511}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -29386,184 +29530,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z43:AB43</xm:f>
-              <xm:sqref>AC43</xm:sqref>
+              <xm:f>'Globals PS2'!Z69:AB69</xm:f>
+              <xm:sqref>AC69</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z44:AB44</xm:f>
-              <xm:sqref>AC44</xm:sqref>
+              <xm:f>'Globals PS2'!Z70:AB70</xm:f>
+              <xm:sqref>AC70</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z45:AB45</xm:f>
-              <xm:sqref>AC45</xm:sqref>
+              <xm:f>'Globals PS2'!Z71:AB71</xm:f>
+              <xm:sqref>AC71</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z46:AB46</xm:f>
-              <xm:sqref>AC46</xm:sqref>
+              <xm:f>'Globals PS2'!Z72:AB72</xm:f>
+              <xm:sqref>AC72</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z47:AB47</xm:f>
-              <xm:sqref>AC47</xm:sqref>
+              <xm:f>'Globals PS2'!Z73:AB73</xm:f>
+              <xm:sqref>AC73</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z48:AB48</xm:f>
-              <xm:sqref>AC48</xm:sqref>
+              <xm:f>'Globals PS2'!Z74:AB74</xm:f>
+              <xm:sqref>AC74</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z49:AB49</xm:f>
-              <xm:sqref>AC49</xm:sqref>
+              <xm:f>'Globals PS2'!Z75:AB75</xm:f>
+              <xm:sqref>AC75</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z50:AB50</xm:f>
-              <xm:sqref>AC50</xm:sqref>
+              <xm:f>'Globals PS2'!Z76:AB76</xm:f>
+              <xm:sqref>AC76</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS2'!Z51:AB51</xm:f>
-              <xm:sqref>AC51</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{08CDE015-5480-440B-8C54-C9DF435CB029}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z30:AB30</xm:f>
-              <xm:sqref>AC30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z31:AB31</xm:f>
-              <xm:sqref>AC31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z32:AB32</xm:f>
-              <xm:sqref>AC32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z33:AB33</xm:f>
-              <xm:sqref>AC33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z34:AB34</xm:f>
-              <xm:sqref>AC34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z35:AB35</xm:f>
-              <xm:sqref>AC35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z36:AB36</xm:f>
-              <xm:sqref>AC36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z37:AB37</xm:f>
-              <xm:sqref>AC37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z38:AB38</xm:f>
-              <xm:sqref>AC38</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F5A1DF84-CBD9-4F69-9FE4-A61331AB74C4}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z4:AB4</xm:f>
-              <xm:sqref>AC4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z5:AB5</xm:f>
-              <xm:sqref>AC5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z6:AB6</xm:f>
-              <xm:sqref>AC6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z7:AB7</xm:f>
-              <xm:sqref>AC7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z8:AB8</xm:f>
-              <xm:sqref>AC8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z9:AB9</xm:f>
-              <xm:sqref>AC9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z10:AB10</xm:f>
-              <xm:sqref>AC10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z11:AB11</xm:f>
-              <xm:sqref>AC11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z12:AB12</xm:f>
-              <xm:sqref>AC12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{5BCB9D73-8CC8-4B8F-9217-BF1C432EFE2F}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z17:AB17</xm:f>
-              <xm:sqref>AC17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z18:AB18</xm:f>
-              <xm:sqref>AC18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z19:AB19</xm:f>
-              <xm:sqref>AC19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z20:AB20</xm:f>
-              <xm:sqref>AC20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z21:AB21</xm:f>
-              <xm:sqref>AC21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z22:AB22</xm:f>
-              <xm:sqref>AC22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z23:AB23</xm:f>
-              <xm:sqref>AC23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z24:AB24</xm:f>
-              <xm:sqref>AC24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS2'!Z25:AB25</xm:f>
-              <xm:sqref>AC25</xm:sqref>
+              <xm:f>'Globals PS2'!Z77:AB77</xm:f>
+              <xm:sqref>AC77</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -36707,7 +36707,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{EF329040-F51B-42D1-ABC4-2997564EAD94}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{95015B24-644B-4E20-891B-BF7FCCD826D4}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -36718,40 +36718,184 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z17:AB17</xm:f>
-              <xm:sqref>AC17</xm:sqref>
+              <xm:f>'Globals PS3'!Z69:AB69</xm:f>
+              <xm:sqref>AC69</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z18:AB18</xm:f>
-              <xm:sqref>AC18</xm:sqref>
+              <xm:f>'Globals PS3'!Z70:AB70</xm:f>
+              <xm:sqref>AC70</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z19:AB19</xm:f>
-              <xm:sqref>AC19</xm:sqref>
+              <xm:f>'Globals PS3'!Z71:AB71</xm:f>
+              <xm:sqref>AC71</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z20:AB20</xm:f>
-              <xm:sqref>AC20</xm:sqref>
+              <xm:f>'Globals PS3'!Z72:AB72</xm:f>
+              <xm:sqref>AC72</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z21:AB21</xm:f>
-              <xm:sqref>AC21</xm:sqref>
+              <xm:f>'Globals PS3'!Z73:AB73</xm:f>
+              <xm:sqref>AC73</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z22:AB22</xm:f>
-              <xm:sqref>AC22</xm:sqref>
+              <xm:f>'Globals PS3'!Z74:AB74</xm:f>
+              <xm:sqref>AC74</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z23:AB23</xm:f>
-              <xm:sqref>AC23</xm:sqref>
+              <xm:f>'Globals PS3'!Z75:AB75</xm:f>
+              <xm:sqref>AC75</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z24:AB24</xm:f>
-              <xm:sqref>AC24</xm:sqref>
+              <xm:f>'Globals PS3'!Z76:AB76</xm:f>
+              <xm:sqref>AC76</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z25:AB25</xm:f>
-              <xm:sqref>AC25</xm:sqref>
+              <xm:f>'Globals PS3'!Z77:AB77</xm:f>
+              <xm:sqref>AC77</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{8102E8E2-F7CF-4F40-84E1-3D2A2DFE74A6}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z56:AB56</xm:f>
+              <xm:sqref>AC56</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z57:AB57</xm:f>
+              <xm:sqref>AC57</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z58:AB58</xm:f>
+              <xm:sqref>AC58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z59:AB59</xm:f>
+              <xm:sqref>AC59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z60:AB60</xm:f>
+              <xm:sqref>AC60</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z61:AB61</xm:f>
+              <xm:sqref>AC61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z62:AB62</xm:f>
+              <xm:sqref>AC62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z63:AB63</xm:f>
+              <xm:sqref>AC63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z64:AB64</xm:f>
+              <xm:sqref>AC64</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{7245D576-FC95-4761-8DFF-B9966E86DED9}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z43:AB43</xm:f>
+              <xm:sqref>AC43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z44:AB44</xm:f>
+              <xm:sqref>AC44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z45:AB45</xm:f>
+              <xm:sqref>AC45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z46:AB46</xm:f>
+              <xm:sqref>AC46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z47:AB47</xm:f>
+              <xm:sqref>AC47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z48:AB48</xm:f>
+              <xm:sqref>AC48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z49:AB49</xm:f>
+              <xm:sqref>AC49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z50:AB50</xm:f>
+              <xm:sqref>AC50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z51:AB51</xm:f>
+              <xm:sqref>AC51</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F58ED9FF-062C-4E3D-A51C-8675754C283E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z30:AB30</xm:f>
+              <xm:sqref>AC30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z31:AB31</xm:f>
+              <xm:sqref>AC31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z32:AB32</xm:f>
+              <xm:sqref>AC32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z33:AB33</xm:f>
+              <xm:sqref>AC33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z34:AB34</xm:f>
+              <xm:sqref>AC34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z35:AB35</xm:f>
+              <xm:sqref>AC35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z36:AB36</xm:f>
+              <xm:sqref>AC36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z37:AB37</xm:f>
+              <xm:sqref>AC37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals PS3'!Z38:AB38</xm:f>
+              <xm:sqref>AC38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -36803,7 +36947,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F58ED9FF-062C-4E3D-A51C-8675754C283E}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{EF329040-F51B-42D1-ABC4-2997564EAD94}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -36814,184 +36958,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z30:AB30</xm:f>
-              <xm:sqref>AC30</xm:sqref>
+              <xm:f>'Globals PS3'!Z17:AB17</xm:f>
+              <xm:sqref>AC17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z31:AB31</xm:f>
-              <xm:sqref>AC31</xm:sqref>
+              <xm:f>'Globals PS3'!Z18:AB18</xm:f>
+              <xm:sqref>AC18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z32:AB32</xm:f>
-              <xm:sqref>AC32</xm:sqref>
+              <xm:f>'Globals PS3'!Z19:AB19</xm:f>
+              <xm:sqref>AC19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z33:AB33</xm:f>
-              <xm:sqref>AC33</xm:sqref>
+              <xm:f>'Globals PS3'!Z20:AB20</xm:f>
+              <xm:sqref>AC20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z34:AB34</xm:f>
-              <xm:sqref>AC34</xm:sqref>
+              <xm:f>'Globals PS3'!Z21:AB21</xm:f>
+              <xm:sqref>AC21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z35:AB35</xm:f>
-              <xm:sqref>AC35</xm:sqref>
+              <xm:f>'Globals PS3'!Z22:AB22</xm:f>
+              <xm:sqref>AC22</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z36:AB36</xm:f>
-              <xm:sqref>AC36</xm:sqref>
+              <xm:f>'Globals PS3'!Z23:AB23</xm:f>
+              <xm:sqref>AC23</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z37:AB37</xm:f>
-              <xm:sqref>AC37</xm:sqref>
+              <xm:f>'Globals PS3'!Z24:AB24</xm:f>
+              <xm:sqref>AC24</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals PS3'!Z38:AB38</xm:f>
-              <xm:sqref>AC38</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{7245D576-FC95-4761-8DFF-B9966E86DED9}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z43:AB43</xm:f>
-              <xm:sqref>AC43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z44:AB44</xm:f>
-              <xm:sqref>AC44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z45:AB45</xm:f>
-              <xm:sqref>AC45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z46:AB46</xm:f>
-              <xm:sqref>AC46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z47:AB47</xm:f>
-              <xm:sqref>AC47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z48:AB48</xm:f>
-              <xm:sqref>AC48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z49:AB49</xm:f>
-              <xm:sqref>AC49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z50:AB50</xm:f>
-              <xm:sqref>AC50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z51:AB51</xm:f>
-              <xm:sqref>AC51</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{8102E8E2-F7CF-4F40-84E1-3D2A2DFE74A6}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z56:AB56</xm:f>
-              <xm:sqref>AC56</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z57:AB57</xm:f>
-              <xm:sqref>AC57</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z58:AB58</xm:f>
-              <xm:sqref>AC58</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z59:AB59</xm:f>
-              <xm:sqref>AC59</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z60:AB60</xm:f>
-              <xm:sqref>AC60</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z61:AB61</xm:f>
-              <xm:sqref>AC61</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z62:AB62</xm:f>
-              <xm:sqref>AC62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z63:AB63</xm:f>
-              <xm:sqref>AC63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z64:AB64</xm:f>
-              <xm:sqref>AC64</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{95015B24-644B-4E20-891B-BF7FCCD826D4}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z69:AB69</xm:f>
-              <xm:sqref>AC69</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z70:AB70</xm:f>
-              <xm:sqref>AC70</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z71:AB71</xm:f>
-              <xm:sqref>AC71</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z72:AB72</xm:f>
-              <xm:sqref>AC72</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z73:AB73</xm:f>
-              <xm:sqref>AC73</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z74:AB74</xm:f>
-              <xm:sqref>AC74</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z75:AB75</xm:f>
-              <xm:sqref>AC75</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z76:AB76</xm:f>
-              <xm:sqref>AC76</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals PS3'!Z77:AB77</xm:f>
-              <xm:sqref>AC77</xm:sqref>
+              <xm:f>'Globals PS3'!Z25:AB25</xm:f>
+              <xm:sqref>AC25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -54440,7 +54440,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{11E87713-31C6-4D7E-A45D-6EDBCEF5586F}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{07EF4BC4-F109-451B-9635-34745E1F2D27}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -54451,40 +54451,376 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA17:AC17</xm:f>
-              <xm:sqref>AD17</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH4:AJ4</xm:f>
+              <xm:sqref>AK4</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA18:AC18</xm:f>
-              <xm:sqref>AD18</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH5:AJ5</xm:f>
+              <xm:sqref>AK5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA19:AC19</xm:f>
-              <xm:sqref>AD19</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH6:AJ6</xm:f>
+              <xm:sqref>AK6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA20:AC20</xm:f>
-              <xm:sqref>AD20</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH7:AJ7</xm:f>
+              <xm:sqref>AK7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA21:AC21</xm:f>
-              <xm:sqref>AD21</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH8:AJ8</xm:f>
+              <xm:sqref>AK8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA22:AC22</xm:f>
-              <xm:sqref>AD22</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH9:AJ9</xm:f>
+              <xm:sqref>AK9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA23:AC23</xm:f>
-              <xm:sqref>AD23</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH10:AJ10</xm:f>
+              <xm:sqref>AK10</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA24:AC24</xm:f>
-              <xm:sqref>AD24</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH11:AJ11</xm:f>
+              <xm:sqref>AK11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA25:AC25</xm:f>
-              <xm:sqref>AD25</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AH12:AJ12</xm:f>
+              <xm:sqref>AK12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{1C2C946D-41D5-4D70-A5B9-8B428C8073C2}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA82:AC82</xm:f>
+              <xm:sqref>AD82</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA83:AC83</xm:f>
+              <xm:sqref>AD83</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA84:AC84</xm:f>
+              <xm:sqref>AD84</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA85:AC85</xm:f>
+              <xm:sqref>AD85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA86:AC86</xm:f>
+              <xm:sqref>AD86</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA87:AC87</xm:f>
+              <xm:sqref>AD87</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA88:AC88</xm:f>
+              <xm:sqref>AD88</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA89:AC89</xm:f>
+              <xm:sqref>AD89</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA90:AC90</xm:f>
+              <xm:sqref>AD90</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{D8F36CF8-1CEB-4CF5-A1EB-2766DA589527}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA95:AC95</xm:f>
+              <xm:sqref>AD95</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA96:AC96</xm:f>
+              <xm:sqref>AD96</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA97:AC97</xm:f>
+              <xm:sqref>AD97</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA98:AC98</xm:f>
+              <xm:sqref>AD98</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA99:AC99</xm:f>
+              <xm:sqref>AD99</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA100:AC100</xm:f>
+              <xm:sqref>AD100</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA101:AC101</xm:f>
+              <xm:sqref>AD101</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA102:AC102</xm:f>
+              <xm:sqref>AD102</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA103:AC103</xm:f>
+              <xm:sqref>AD103</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{9616F42B-B073-4137-A480-41EBBD9B2B16}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA108:AC108</xm:f>
+              <xm:sqref>AD108</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA109:AC109</xm:f>
+              <xm:sqref>AD109</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA110:AC110</xm:f>
+              <xm:sqref>AD110</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA111:AC111</xm:f>
+              <xm:sqref>AD111</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA112:AC112</xm:f>
+              <xm:sqref>AD112</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA113:AC113</xm:f>
+              <xm:sqref>AD113</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA114:AC114</xm:f>
+              <xm:sqref>AD114</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA115:AC115</xm:f>
+              <xm:sqref>AD115</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA116:AC116</xm:f>
+              <xm:sqref>AD116</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{7F0142B3-1717-4FC5-9B83-3F2D1365B64C}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA69:AC69</xm:f>
+              <xm:sqref>AD69</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA70:AC70</xm:f>
+              <xm:sqref>AD70</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA71:AC71</xm:f>
+              <xm:sqref>AD71</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA72:AC72</xm:f>
+              <xm:sqref>AD72</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA73:AC73</xm:f>
+              <xm:sqref>AD73</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA74:AC74</xm:f>
+              <xm:sqref>AD74</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA75:AC75</xm:f>
+              <xm:sqref>AD75</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA76:AC76</xm:f>
+              <xm:sqref>AD76</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA77:AC77</xm:f>
+              <xm:sqref>AD77</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{6154E76E-ABE3-4EA8-87C4-DA9A12AF6E08}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA56:AC56</xm:f>
+              <xm:sqref>AD56</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA57:AC57</xm:f>
+              <xm:sqref>AD57</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA58:AC58</xm:f>
+              <xm:sqref>AD58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA59:AC59</xm:f>
+              <xm:sqref>AD59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA60:AC60</xm:f>
+              <xm:sqref>AD60</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA61:AC61</xm:f>
+              <xm:sqref>AD61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA62:AC62</xm:f>
+              <xm:sqref>AD62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA63:AC63</xm:f>
+              <xm:sqref>AD63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA64:AC64</xm:f>
+              <xm:sqref>AD64</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{E7B2CF59-D4AD-446A-BADC-A1DC4FDDAEC2}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA43:AC43</xm:f>
+              <xm:sqref>AD43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA44:AC44</xm:f>
+              <xm:sqref>AD44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA45:AC45</xm:f>
+              <xm:sqref>AD45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA46:AC46</xm:f>
+              <xm:sqref>AD46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA47:AC47</xm:f>
+              <xm:sqref>AD47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA48:AC48</xm:f>
+              <xm:sqref>AD48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA49:AC49</xm:f>
+              <xm:sqref>AD49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA50:AC50</xm:f>
+              <xm:sqref>AD50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA51:AC51</xm:f>
+              <xm:sqref>AD51</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{D6B30168-7999-43B9-80BB-A0864A7B8005}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA30:AC30</xm:f>
+              <xm:sqref>AD30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA31:AC31</xm:f>
+              <xm:sqref>AD31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA32:AC32</xm:f>
+              <xm:sqref>AD32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA33:AC33</xm:f>
+              <xm:sqref>AD33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA34:AC34</xm:f>
+              <xm:sqref>AD34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA35:AC35</xm:f>
+              <xm:sqref>AD35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA36:AC36</xm:f>
+              <xm:sqref>AD36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA37:AC37</xm:f>
+              <xm:sqref>AD37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Globals All-Problems Seqa'!AA38:AC38</xm:f>
+              <xm:sqref>AD38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -54536,7 +54872,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{D6B30168-7999-43B9-80BB-A0864A7B8005}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{11E87713-31C6-4D7E-A45D-6EDBCEF5586F}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -54547,376 +54883,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA30:AC30</xm:f>
-              <xm:sqref>AD30</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA17:AC17</xm:f>
+              <xm:sqref>AD17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA31:AC31</xm:f>
-              <xm:sqref>AD31</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA18:AC18</xm:f>
+              <xm:sqref>AD18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA32:AC32</xm:f>
-              <xm:sqref>AD32</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA19:AC19</xm:f>
+              <xm:sqref>AD19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA33:AC33</xm:f>
-              <xm:sqref>AD33</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA20:AC20</xm:f>
+              <xm:sqref>AD20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA34:AC34</xm:f>
-              <xm:sqref>AD34</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA21:AC21</xm:f>
+              <xm:sqref>AD21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA35:AC35</xm:f>
-              <xm:sqref>AD35</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA22:AC22</xm:f>
+              <xm:sqref>AD22</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA36:AC36</xm:f>
-              <xm:sqref>AD36</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA23:AC23</xm:f>
+              <xm:sqref>AD23</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA37:AC37</xm:f>
-              <xm:sqref>AD37</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA24:AC24</xm:f>
+              <xm:sqref>AD24</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA38:AC38</xm:f>
-              <xm:sqref>AD38</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{E7B2CF59-D4AD-446A-BADC-A1DC4FDDAEC2}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA43:AC43</xm:f>
-              <xm:sqref>AD43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA44:AC44</xm:f>
-              <xm:sqref>AD44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA45:AC45</xm:f>
-              <xm:sqref>AD45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA46:AC46</xm:f>
-              <xm:sqref>AD46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA47:AC47</xm:f>
-              <xm:sqref>AD47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA48:AC48</xm:f>
-              <xm:sqref>AD48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA49:AC49</xm:f>
-              <xm:sqref>AD49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA50:AC50</xm:f>
-              <xm:sqref>AD50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA51:AC51</xm:f>
-              <xm:sqref>AD51</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{6154E76E-ABE3-4EA8-87C4-DA9A12AF6E08}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA56:AC56</xm:f>
-              <xm:sqref>AD56</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA57:AC57</xm:f>
-              <xm:sqref>AD57</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA58:AC58</xm:f>
-              <xm:sqref>AD58</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA59:AC59</xm:f>
-              <xm:sqref>AD59</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA60:AC60</xm:f>
-              <xm:sqref>AD60</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA61:AC61</xm:f>
-              <xm:sqref>AD61</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA62:AC62</xm:f>
-              <xm:sqref>AD62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA63:AC63</xm:f>
-              <xm:sqref>AD63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA64:AC64</xm:f>
-              <xm:sqref>AD64</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{7F0142B3-1717-4FC5-9B83-3F2D1365B64C}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA69:AC69</xm:f>
-              <xm:sqref>AD69</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA70:AC70</xm:f>
-              <xm:sqref>AD70</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA71:AC71</xm:f>
-              <xm:sqref>AD71</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA72:AC72</xm:f>
-              <xm:sqref>AD72</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA73:AC73</xm:f>
-              <xm:sqref>AD73</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA74:AC74</xm:f>
-              <xm:sqref>AD74</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA75:AC75</xm:f>
-              <xm:sqref>AD75</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA76:AC76</xm:f>
-              <xm:sqref>AD76</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA77:AC77</xm:f>
-              <xm:sqref>AD77</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{9616F42B-B073-4137-A480-41EBBD9B2B16}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA108:AC108</xm:f>
-              <xm:sqref>AD108</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA109:AC109</xm:f>
-              <xm:sqref>AD109</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA110:AC110</xm:f>
-              <xm:sqref>AD110</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA111:AC111</xm:f>
-              <xm:sqref>AD111</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA112:AC112</xm:f>
-              <xm:sqref>AD112</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA113:AC113</xm:f>
-              <xm:sqref>AD113</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA114:AC114</xm:f>
-              <xm:sqref>AD114</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA115:AC115</xm:f>
-              <xm:sqref>AD115</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA116:AC116</xm:f>
-              <xm:sqref>AD116</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{D8F36CF8-1CEB-4CF5-A1EB-2766DA589527}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA95:AC95</xm:f>
-              <xm:sqref>AD95</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA96:AC96</xm:f>
-              <xm:sqref>AD96</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA97:AC97</xm:f>
-              <xm:sqref>AD97</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA98:AC98</xm:f>
-              <xm:sqref>AD98</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA99:AC99</xm:f>
-              <xm:sqref>AD99</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA100:AC100</xm:f>
-              <xm:sqref>AD100</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA101:AC101</xm:f>
-              <xm:sqref>AD101</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA102:AC102</xm:f>
-              <xm:sqref>AD102</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA103:AC103</xm:f>
-              <xm:sqref>AD103</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{1C2C946D-41D5-4D70-A5B9-8B428C8073C2}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA82:AC82</xm:f>
-              <xm:sqref>AD82</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA83:AC83</xm:f>
-              <xm:sqref>AD83</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA84:AC84</xm:f>
-              <xm:sqref>AD84</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA85:AC85</xm:f>
-              <xm:sqref>AD85</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA86:AC86</xm:f>
-              <xm:sqref>AD86</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA87:AC87</xm:f>
-              <xm:sqref>AD87</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA88:AC88</xm:f>
-              <xm:sqref>AD88</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA89:AC89</xm:f>
-              <xm:sqref>AD89</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AA90:AC90</xm:f>
-              <xm:sqref>AD90</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" high="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{07EF4BC4-F109-451B-9635-34745E1F2D27}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH4:AJ4</xm:f>
-              <xm:sqref>AK4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH5:AJ5</xm:f>
-              <xm:sqref>AK5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH6:AJ6</xm:f>
-              <xm:sqref>AK6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH7:AJ7</xm:f>
-              <xm:sqref>AK7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH8:AJ8</xm:f>
-              <xm:sqref>AK8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH9:AJ9</xm:f>
-              <xm:sqref>AK9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH10:AJ10</xm:f>
-              <xm:sqref>AK10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH11:AJ11</xm:f>
-              <xm:sqref>AK11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Globals All-Problems Seqa'!AH12:AJ12</xm:f>
-              <xm:sqref>AK12</xm:sqref>
+              <xm:f>'Globals All-Problems Seqa'!AA25:AC25</xm:f>
+              <xm:sqref>AD25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
